--- a/biology/Zoologie/Cygnus_falconeri/Cygnus_falconeri.xlsx
+++ b/biology/Zoologie/Cygnus_falconeri/Cygnus_falconeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cygnus falconeri est une espèce fossile géante de cygnes. Il a vécu au Pléistocène moyen à Malte et en Sicile.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été décrit par William Kitchen Parker en 1865[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit par William Kitchen Parker en 1865.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cygnus falconeri mesurait de 1,90 à 2,10 m de la tête à la queue. Il était donc plus grand que Cygnus olor, le cygne commun (1,45 à 1,60 m).
 Quoique moins lourd, il aurait été plus grand que les éléphants nains de la région à cette époque (Elephas falconeri et Elephas melitensis). En raison de sa taille, il ne devait pas être un bon voilier. 
@@ -574,7 +590,9 @@
           <t>Extinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a disparu avant le développement de la chasse, peut-être en raison d'une inadaptation à un changement climatique ou de l’arrivée dans son biotope de nouveaux concurrents ou de nouveaux prédateurs.
 </t>
